--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -927,7 +927,7 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-name-use-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-name-use-value-set</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -1113,7 +1113,7 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-contact-point-system-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-contact-point-system-value-set</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -1168,7 +1168,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-contact-point-use-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-contact-point-use-value-set</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -2534,7 +2534,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.8515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="657">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>The Patient Profile is based upon the core FHIR Patient Resource</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-merge-patient-1:In a PatientMerge resource, all link.other.identifier must have a value {Patient.link.other.identifier.where(value.empty() or value ='').empty()}invariant-merge-patient-2:In a PatientMerge resource, identifier.extension shall not be present {Patient.identifier.value.extension.empty()}invariant-merge-patient-3:In a PatientMerge resource, link.other.identifier.extension shall never be present {Patient.link.other.identifier.value.extension.empty()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2526,13 +2530,13 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>39</v>
@@ -2546,10 +2550,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2560,7 +2564,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -2569,19 +2573,19 @@
         <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2631,13 +2635,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -2663,10 +2667,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2677,7 +2681,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>39</v>
@@ -2686,16 +2690,16 @@
         <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2746,19 +2750,19 @@
         <v>39</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -2778,10 +2782,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2792,28 +2796,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2863,19 +2867,19 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -2895,10 +2899,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2909,7 +2913,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>39</v>
@@ -2921,16 +2925,16 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2956,13 +2960,13 @@
         <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>39</v>
@@ -2980,19 +2984,19 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -3012,21 +3016,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>39</v>
@@ -3038,16 +3042,16 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3097,22 +3101,22 @@
         <v>39</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>39</v>
@@ -3129,14 +3133,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3155,16 +3159,16 @@
         <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3214,7 +3218,7 @@
         <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -3229,7 +3233,7 @@
         <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>39</v>
@@ -3246,10 +3250,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3272,13 +3276,13 @@
         <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3317,17 +3321,17 @@
         <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -3339,7 +3343,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -3359,13 +3363,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>39</v>
@@ -3375,7 +3379,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>39</v>
@@ -3387,13 +3391,13 @@
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3444,7 +3448,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -3453,10 +3457,10 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -3476,13 +3480,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>39</v>
@@ -3492,7 +3496,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>39</v>
@@ -3504,16 +3508,16 @@
         <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3563,7 +3567,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -3572,10 +3576,10 @@
         <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -3595,13 +3599,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>39</v>
@@ -3611,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>39</v>
@@ -3623,16 +3627,16 @@
         <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3682,7 +3686,7 @@
         <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -3691,13 +3695,13 @@
         <v>38</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>39</v>
@@ -3714,13 +3718,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>39</v>
@@ -3730,7 +3734,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>39</v>
@@ -3742,16 +3746,16 @@
         <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3801,7 +3805,7 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -3810,13 +3814,13 @@
         <v>38</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>39</v>
@@ -3833,13 +3837,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>39</v>
@@ -3849,10 +3853,10 @@
         <v>37</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>39</v>
@@ -3861,13 +3865,13 @@
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3918,7 +3922,7 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -3930,7 +3934,7 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>39</v>
@@ -3950,13 +3954,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>39</v>
@@ -3966,10 +3970,10 @@
         <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>39</v>
@@ -3978,13 +3982,13 @@
         <v>39</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4035,7 +4039,7 @@
         <v>39</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
@@ -4047,7 +4051,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -4067,14 +4071,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4087,25 +4091,25 @@
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>39</v>
@@ -4154,7 +4158,7 @@
         <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
@@ -4166,10 +4170,10 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -4186,10 +4190,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4197,13 +4201,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>39</v>
@@ -4212,17 +4216,17 @@
         <v>39</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>39</v>
@@ -4259,17 +4263,17 @@
         <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -4278,13 +4282,13 @@
         <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -4293,7 +4297,7 @@
         <v>39</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>39</v>
@@ -4301,13 +4305,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>39</v>
@@ -4329,17 +4333,17 @@
         <v>39</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>39</v>
@@ -4388,7 +4392,7 @@
         <v>39</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -4397,13 +4401,13 @@
         <v>38</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -4412,7 +4416,7 @@
         <v>39</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>39</v>
@@ -4420,10 +4424,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4434,7 +4438,7 @@
         <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>39</v>
@@ -4446,13 +4450,13 @@
         <v>39</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4503,13 +4507,13 @@
         <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>39</v>
@@ -4518,7 +4522,7 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -4535,10 +4539,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4561,13 +4565,13 @@
         <v>39</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4606,19 +4610,19 @@
         <v>39</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -4630,7 +4634,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -4650,13 +4654,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>39</v>
@@ -4678,16 +4682,16 @@
         <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4737,7 +4741,7 @@
         <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -4749,7 +4753,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -4769,10 +4773,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4783,31 +4787,31 @@
         <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>39</v>
@@ -4832,13 +4836,13 @@
         <v>39</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>39</v>
@@ -4856,22 +4860,22 @@
         <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -4880,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>39</v>
@@ -4888,10 +4892,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4899,10 +4903,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>39</v>
@@ -4911,29 +4915,29 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>39</v>
@@ -4951,13 +4955,13 @@
         <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>39</v>
@@ -4975,22 +4979,22 @@
         <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -4999,7 +5003,7 @@
         <v>39</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>39</v>
@@ -5007,10 +5011,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5018,10 +5022,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>39</v>
@@ -5030,22 +5034,22 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>39</v>
@@ -5058,7 +5062,7 @@
         <v>39</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>39</v>
@@ -5094,22 +5098,22 @@
         <v>39</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -5118,7 +5122,7 @@
         <v>39</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>39</v>
@@ -5126,10 +5130,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5137,10 +5141,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>39</v>
@@ -5149,19 +5153,19 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5175,7 +5179,7 @@
         <v>39</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>39</v>
@@ -5211,22 +5215,22 @@
         <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -5235,7 +5239,7 @@
         <v>39</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>39</v>
@@ -5243,10 +5247,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5257,7 +5261,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>39</v>
@@ -5266,16 +5270,16 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5326,22 +5330,22 @@
         <v>39</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>39</v>
@@ -5350,7 +5354,7 @@
         <v>39</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>39</v>
@@ -5358,10 +5362,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5372,7 +5376,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>39</v>
@@ -5381,19 +5385,19 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5443,22 +5447,22 @@
         <v>39</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -5467,7 +5471,7 @@
         <v>39</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>39</v>
@@ -5475,10 +5479,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5489,103 +5493,103 @@
         <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="J27" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>39</v>
@@ -5596,10 +5600,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5613,28 +5617,28 @@
         <v>38</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>39</v>
@@ -5683,7 +5687,7 @@
         <v>39</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
@@ -5695,19 +5699,19 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>39</v>
@@ -5715,10 +5719,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5729,7 +5733,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>39</v>
@@ -5741,13 +5745,13 @@
         <v>39</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5798,13 +5802,13 @@
         <v>39</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>39</v>
@@ -5813,7 +5817,7 @@
         <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -5830,14 +5834,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5856,16 +5860,16 @@
         <v>39</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5903,19 +5907,19 @@
         <v>39</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
@@ -5927,10 +5931,10 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -5947,10 +5951,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5961,31 +5965,31 @@
         <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>39</v>
@@ -6010,11 +6014,11 @@
         <v>39</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>39</v>
@@ -6032,22 +6036,22 @@
         <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
@@ -6056,7 +6060,7 @@
         <v>39</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>39</v>
@@ -6064,10 +6068,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6078,7 +6082,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -6087,22 +6091,22 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>39</v>
@@ -6151,22 +6155,22 @@
         <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -6175,7 +6179,7 @@
         <v>39</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>39</v>
@@ -6183,21 +6187,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
@@ -6206,19 +6210,19 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6268,22 +6272,22 @@
         <v>39</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -6292,7 +6296,7 @@
         <v>39</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>39</v>
@@ -6300,14 +6304,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6323,19 +6327,19 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6385,7 +6389,7 @@
         <v>39</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -6397,10 +6401,10 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -6409,7 +6413,7 @@
         <v>39</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>39</v>
@@ -6417,10 +6421,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6440,16 +6444,16 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6500,7 +6504,7 @@
         <v>39</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
@@ -6512,10 +6516,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -6524,7 +6528,7 @@
         <v>39</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>39</v>
@@ -6532,10 +6536,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6555,16 +6559,16 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6615,7 +6619,7 @@
         <v>39</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
@@ -6627,10 +6631,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -6639,7 +6643,7 @@
         <v>39</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>39</v>
@@ -6647,10 +6651,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6661,7 +6665,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>39</v>
@@ -6670,20 +6674,20 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>39</v>
@@ -6732,22 +6736,22 @@
         <v>39</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -6756,7 +6760,7 @@
         <v>39</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>39</v>
@@ -6764,10 +6768,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6781,28 +6785,28 @@
         <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>39</v>
@@ -6851,7 +6855,7 @@
         <v>39</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
@@ -6863,19 +6867,19 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>39</v>
@@ -6883,10 +6887,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6897,7 +6901,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>39</v>
@@ -6909,13 +6913,13 @@
         <v>39</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6966,13 +6970,13 @@
         <v>39</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>39</v>
@@ -6981,7 +6985,7 @@
         <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -6998,14 +7002,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7024,16 +7028,16 @@
         <v>39</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7071,19 +7075,19 @@
         <v>39</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
@@ -7095,10 +7099,10 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -7115,10 +7119,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7126,10 +7130,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>39</v>
@@ -7138,16 +7142,16 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7174,11 +7178,11 @@
         <v>39</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>39</v>
@@ -7196,22 +7200,22 @@
         <v>39</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -7220,7 +7224,7 @@
         <v>39</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>39</v>
@@ -7228,10 +7232,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7239,10 +7243,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>39</v>
@@ -7251,22 +7255,22 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>39</v>
@@ -7315,22 +7319,22 @@
         <v>39</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -7339,7 +7343,7 @@
         <v>39</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>39</v>
@@ -7347,10 +7351,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7358,34 +7362,34 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>39</v>
@@ -7410,11 +7414,11 @@
         <v>39</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>39</v>
@@ -7432,22 +7436,22 @@
         <v>39</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -7456,7 +7460,7 @@
         <v>39</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>39</v>
@@ -7464,10 +7468,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7478,7 +7482,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>39</v>
@@ -7487,19 +7491,19 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7549,22 +7553,22 @@
         <v>39</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -7573,7 +7577,7 @@
         <v>39</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>39</v>
@@ -7581,10 +7585,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7595,7 +7599,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>39</v>
@@ -7604,16 +7608,16 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7664,22 +7668,22 @@
         <v>39</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -7688,7 +7692,7 @@
         <v>39</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>39</v>
@@ -7696,10 +7700,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7710,31 +7714,31 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>39</v>
@@ -7759,13 +7763,13 @@
         <v>39</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>39</v>
@@ -7783,31 +7787,31 @@
         <v>39</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>39</v>
@@ -7815,10 +7819,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7829,7 +7833,7 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>39</v>
@@ -7841,13 +7845,13 @@
         <v>39</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7898,13 +7902,13 @@
         <v>39</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>39</v>
@@ -7930,10 +7934,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7956,13 +7960,13 @@
         <v>39</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8001,17 +8005,17 @@
         <v>39</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -8023,7 +8027,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -8043,13 +8047,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="C49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>39</v>
@@ -8059,10 +8063,10 @@
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>39</v>
@@ -8071,13 +8075,13 @@
         <v>39</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8128,7 +8132,7 @@
         <v>39</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
@@ -8137,10 +8141,10 @@
         <v>38</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -8160,10 +8164,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8174,7 +8178,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>39</v>
@@ -8186,13 +8190,13 @@
         <v>39</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8243,13 +8247,13 @@
         <v>39</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>39</v>
@@ -8275,10 +8279,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8289,31 +8293,31 @@
         <v>37</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>39</v>
@@ -8362,42 +8366,42 @@
         <v>39</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8408,7 +8412,7 @@
         <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>39</v>
@@ -8420,13 +8424,13 @@
         <v>39</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8477,13 +8481,13 @@
         <v>39</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>39</v>
@@ -8509,10 +8513,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8535,13 +8539,13 @@
         <v>39</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8580,17 +8584,17 @@
         <v>39</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
@@ -8602,7 +8606,7 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -8622,13 +8626,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="B54" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="C54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>39</v>
@@ -8638,7 +8642,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>39</v>
@@ -8650,13 +8654,13 @@
         <v>39</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8707,7 +8711,7 @@
         <v>39</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
@@ -8716,10 +8720,10 @@
         <v>38</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -8739,10 +8743,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8753,7 +8757,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>39</v>
@@ -8765,13 +8769,13 @@
         <v>39</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8822,13 +8826,13 @@
         <v>39</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>39</v>
@@ -8854,10 +8858,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8868,31 +8872,31 @@
         <v>37</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>39</v>
@@ -8941,31 +8945,31 @@
         <v>39</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>39</v>
@@ -8973,10 +8977,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8987,7 +8991,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>39</v>
@@ -8999,13 +9003,13 @@
         <v>39</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9056,13 +9060,13 @@
         <v>39</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>39</v>
@@ -9088,10 +9092,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9114,13 +9118,13 @@
         <v>39</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9159,17 +9163,17 @@
         <v>39</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
@@ -9181,7 +9185,7 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -9201,13 +9205,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="B59" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="C59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>39</v>
@@ -9217,10 +9221,10 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>39</v>
@@ -9229,13 +9233,13 @@
         <v>39</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9286,7 +9290,7 @@
         <v>39</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
@@ -9295,10 +9299,10 @@
         <v>38</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
@@ -9318,13 +9322,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>39</v>
@@ -9334,10 +9338,10 @@
         <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>39</v>
@@ -9346,13 +9350,13 @@
         <v>39</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9403,7 +9407,7 @@
         <v>39</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
@@ -9412,10 +9416,10 @@
         <v>38</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -9435,10 +9439,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9449,7 +9453,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>39</v>
@@ -9461,13 +9465,13 @@
         <v>39</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9518,13 +9522,13 @@
         <v>39</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>39</v>
@@ -9550,10 +9554,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9567,28 +9571,28 @@
         <v>38</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>39</v>
@@ -9637,7 +9641,7 @@
         <v>39</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
@@ -9649,19 +9653,19 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>39</v>
@@ -9669,10 +9673,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9683,7 +9687,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>39</v>
@@ -9695,13 +9699,13 @@
         <v>39</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9752,13 +9756,13 @@
         <v>39</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>39</v>
@@ -9767,7 +9771,7 @@
         <v>39</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>39</v>
@@ -9784,10 +9788,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9810,13 +9814,13 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9855,19 +9859,19 @@
         <v>39</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
@@ -9879,7 +9883,7 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
@@ -9899,13 +9903,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="B65" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="C65" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>39</v>
@@ -9915,7 +9919,7 @@
         <v>37</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>39</v>
@@ -9927,13 +9931,13 @@
         <v>39</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9984,7 +9988,7 @@
         <v>39</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
@@ -9996,7 +10000,7 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
@@ -10016,13 +10020,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>39</v>
@@ -10032,7 +10036,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>39</v>
@@ -10044,16 +10048,16 @@
         <v>39</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10103,7 +10107,7 @@
         <v>39</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
@@ -10115,7 +10119,7 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
@@ -10135,13 +10139,13 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>39</v>
@@ -10151,10 +10155,10 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>39</v>
@@ -10163,13 +10167,13 @@
         <v>39</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10220,7 +10224,7 @@
         <v>39</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
@@ -10232,7 +10236,7 @@
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
@@ -10252,10 +10256,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10266,31 +10270,31 @@
         <v>37</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>39</v>
@@ -10303,7 +10307,7 @@
         <v>39</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>39</v>
@@ -10315,13 +10319,13 @@
         <v>39</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>39</v>
@@ -10339,22 +10343,22 @@
         <v>39</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>39</v>
@@ -10363,7 +10367,7 @@
         <v>39</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>39</v>
@@ -10371,10 +10375,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10382,10 +10386,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>39</v>
@@ -10394,19 +10398,19 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10420,7 +10424,7 @@
         <v>39</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>39</v>
@@ -10432,13 +10436,13 @@
         <v>39</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>39</v>
@@ -10456,22 +10460,22 @@
         <v>39</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -10480,7 +10484,7 @@
         <v>39</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>39</v>
@@ -10488,10 +10492,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10502,7 +10506,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>39</v>
@@ -10511,22 +10515,22 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>39</v>
@@ -10539,7 +10543,7 @@
         <v>39</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>39</v>
@@ -10575,22 +10579,22 @@
         <v>39</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -10599,7 +10603,7 @@
         <v>39</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>39</v>
@@ -10607,10 +10611,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10630,16 +10634,16 @@
         <v>39</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10654,7 +10658,7 @@
         <v>39</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>39</v>
@@ -10690,7 +10694,7 @@
         <v>39</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
@@ -10702,10 +10706,10 @@
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -10714,7 +10718,7 @@
         <v>39</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>39</v>
@@ -10722,21 +10726,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>39</v>
@@ -10745,16 +10749,16 @@
         <v>39</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10769,7 +10773,7 @@
         <v>39</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>39</v>
@@ -10805,22 +10809,22 @@
         <v>39</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -10829,7 +10833,7 @@
         <v>39</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>39</v>
@@ -10837,21 +10841,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>39</v>
@@ -10860,19 +10864,19 @@
         <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10886,7 +10890,7 @@
         <v>39</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>39</v>
@@ -10922,22 +10926,22 @@
         <v>39</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -10946,7 +10950,7 @@
         <v>39</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>39</v>
@@ -10954,21 +10958,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>39</v>
@@ -10977,16 +10981,16 @@
         <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11037,22 +11041,22 @@
         <v>39</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>39</v>
@@ -11061,7 +11065,7 @@
         <v>39</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>39</v>
@@ -11069,21 +11073,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>39</v>
@@ -11092,16 +11096,16 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11116,7 +11120,7 @@
         <v>39</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>39</v>
@@ -11152,22 +11156,22 @@
         <v>39</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -11176,7 +11180,7 @@
         <v>39</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>39</v>
@@ -11184,10 +11188,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11198,7 +11202,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>39</v>
@@ -11207,19 +11211,19 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11269,22 +11273,22 @@
         <v>39</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>39</v>
@@ -11293,7 +11297,7 @@
         <v>39</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>39</v>
@@ -11301,10 +11305,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11315,7 +11319,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>39</v>
@@ -11324,20 +11328,20 @@
         <v>39</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>39</v>
@@ -11350,7 +11354,7 @@
         <v>39</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>39</v>
@@ -11386,22 +11390,22 @@
         <v>39</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>39</v>
@@ -11410,7 +11414,7 @@
         <v>39</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>39</v>
@@ -11418,10 +11422,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11432,7 +11436,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>39</v>
@@ -11444,17 +11448,17 @@
         <v>39</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>39</v>
@@ -11479,13 +11483,13 @@
         <v>39</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>39</v>
@@ -11503,31 +11507,31 @@
         <v>39</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>39</v>
@@ -11535,10 +11539,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11549,7 +11553,7 @@
         <v>37</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>39</v>
@@ -11561,19 +11565,19 @@
         <v>39</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>39</v>
@@ -11622,31 +11626,31 @@
         <v>39</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>39</v>
@@ -11654,10 +11658,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11668,7 +11672,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>39</v>
@@ -11680,13 +11684,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11737,13 +11741,13 @@
         <v>39</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>39</v>
@@ -11752,7 +11756,7 @@
         <v>39</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -11769,14 +11773,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11795,16 +11799,16 @@
         <v>39</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11842,19 +11846,19 @@
         <v>39</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>37</v>
@@ -11866,10 +11870,10 @@
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>39</v>
@@ -11886,13 +11890,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="B82" t="s" s="2">
-        <v>526</v>
-      </c>
       <c r="C82" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>39</v>
@@ -11902,10 +11906,10 @@
         <v>37</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>39</v>
@@ -11914,13 +11918,13 @@
         <v>39</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11971,7 +11975,7 @@
         <v>39</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>37</v>
@@ -11983,7 +11987,7 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>39</v>
@@ -12003,10 +12007,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12029,19 +12033,19 @@
         <v>39</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>39</v>
@@ -12090,7 +12094,7 @@
         <v>39</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>37</v>
@@ -12102,19 +12106,19 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>39</v>
@@ -12122,10 +12126,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12148,19 +12152,19 @@
         <v>39</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>39</v>
@@ -12209,7 +12213,7 @@
         <v>39</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>37</v>
@@ -12221,13 +12225,13 @@
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>39</v>
@@ -12241,10 +12245,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12255,7 +12259,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>39</v>
@@ -12267,13 +12271,13 @@
         <v>39</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12324,13 +12328,13 @@
         <v>39</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
@@ -12339,7 +12343,7 @@
         <v>39</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -12356,14 +12360,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12382,16 +12386,16 @@
         <v>39</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12441,7 +12445,7 @@
         <v>39</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>37</v>
@@ -12453,10 +12457,10 @@
         <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -12473,14 +12477,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12493,25 +12497,25 @@
         <v>39</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>39</v>
@@ -12560,7 +12564,7 @@
         <v>39</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>37</v>
@@ -12572,10 +12576,10 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -12592,10 +12596,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12618,17 +12622,17 @@
         <v>39</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>39</v>
@@ -12653,13 +12657,13 @@
         <v>39</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>39</v>
@@ -12677,7 +12681,7 @@
         <v>39</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>37</v>
@@ -12689,19 +12693,19 @@
         <v>39</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>39</v>
@@ -12709,10 +12713,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12723,7 +12727,7 @@
         <v>37</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>39</v>
@@ -12735,17 +12739,17 @@
         <v>39</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>39</v>
@@ -12794,31 +12798,31 @@
         <v>39</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>39</v>
@@ -12826,10 +12830,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12852,19 +12856,19 @@
         <v>39</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>39</v>
@@ -12913,7 +12917,7 @@
         <v>39</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>37</v>
@@ -12925,19 +12929,19 @@
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>39</v>
@@ -12945,10 +12949,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12959,7 +12963,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>39</v>
@@ -12971,17 +12975,17 @@
         <v>39</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>39</v>
@@ -13030,31 +13034,31 @@
         <v>39</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>39</v>
@@ -13062,10 +13066,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13076,7 +13080,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>39</v>
@@ -13088,17 +13092,17 @@
         <v>39</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>39</v>
@@ -13123,13 +13127,13 @@
         <v>39</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>39</v>
@@ -13147,31 +13151,31 @@
         <v>39</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>39</v>
@@ -13179,10 +13183,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13193,7 +13197,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>39</v>
@@ -13205,17 +13209,17 @@
         <v>39</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>39</v>
@@ -13264,31 +13268,31 @@
         <v>39</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>39</v>
@@ -13296,10 +13300,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13310,7 +13314,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>39</v>
@@ -13322,13 +13326,13 @@
         <v>39</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13379,25 +13383,25 @@
         <v>39</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>39</v>
@@ -13411,10 +13415,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13437,19 +13441,19 @@
         <v>39</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>39</v>
@@ -13498,7 +13502,7 @@
         <v>39</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>37</v>
@@ -13510,13 +13514,13 @@
         <v>39</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>39</v>
@@ -13530,10 +13534,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13544,7 +13548,7 @@
         <v>37</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>39</v>
@@ -13556,13 +13560,13 @@
         <v>39</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13613,13 +13617,13 @@
         <v>39</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>39</v>
@@ -13628,7 +13632,7 @@
         <v>39</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -13645,14 +13649,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13671,16 +13675,16 @@
         <v>39</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13730,7 +13734,7 @@
         <v>39</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>37</v>
@@ -13742,10 +13746,10 @@
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>39</v>
@@ -13762,14 +13766,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13782,25 +13786,25 @@
         <v>39</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>39</v>
@@ -13849,7 +13853,7 @@
         <v>39</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>37</v>
@@ -13861,10 +13865,10 @@
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>39</v>
@@ -13881,10 +13885,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13892,10 +13896,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>39</v>
@@ -13907,19 +13911,19 @@
         <v>39</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>39</v>
@@ -13944,13 +13948,13 @@
         <v>39</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>39</v>
@@ -13968,31 +13972,31 @@
         <v>39</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>39</v>
@@ -14000,10 +14004,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14014,7 +14018,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>39</v>
@@ -14026,19 +14030,19 @@
         <v>39</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>39</v>
@@ -14087,31 +14091,31 @@
         <v>39</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>39</v>
@@ -14119,14 +14123,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14145,16 +14149,16 @@
         <v>39</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14204,7 +14208,7 @@
         <v>39</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>37</v>
@@ -14216,19 +14220,19 @@
         <v>39</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>39</v>
@@ -14236,10 +14240,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14250,7 +14254,7 @@
         <v>37</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>39</v>
@@ -14259,22 +14263,22 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>39</v>
@@ -14323,25 +14327,25 @@
         <v>39</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>39</v>
@@ -14355,10 +14359,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14372,28 +14376,28 @@
         <v>38</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>39</v>
@@ -14442,7 +14446,7 @@
         <v>39</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>37</v>
@@ -14454,13 +14458,13 @@
         <v>39</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>39</v>
@@ -14474,10 +14478,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14488,7 +14492,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>39</v>
@@ -14500,13 +14504,13 @@
         <v>39</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14557,13 +14561,13 @@
         <v>39</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>39</v>
@@ -14572,7 +14576,7 @@
         <v>39</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>39</v>
@@ -14589,10 +14593,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14615,13 +14619,13 @@
         <v>39</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14660,17 +14664,17 @@
         <v>39</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC105" s="2"/>
       <c r="AD105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>37</v>
@@ -14682,7 +14686,7 @@
         <v>39</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>39</v>
@@ -14702,13 +14706,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="B106" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="C106" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>39</v>
@@ -14721,7 +14725,7 @@
         <v>38</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>39</v>
@@ -14730,13 +14734,13 @@
         <v>39</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14787,7 +14791,7 @@
         <v>39</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>37</v>
@@ -14796,10 +14800,10 @@
         <v>38</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>39</v>
@@ -14819,14 +14823,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14839,25 +14843,25 @@
         <v>39</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>39</v>
@@ -14906,7 +14910,7 @@
         <v>39</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>37</v>
@@ -14918,10 +14922,10 @@
         <v>39</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>39</v>
@@ -14938,10 +14942,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14949,10 +14953,10 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>39</v>
@@ -14961,19 +14965,19 @@
         <v>39</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15023,31 +15027,31 @@
         <v>39</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>39</v>
@@ -15055,10 +15059,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15066,10 +15070,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>39</v>
@@ -15078,16 +15082,16 @@
         <v>39</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15114,13 +15118,13 @@
         <v>39</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>39</v>
@@ -15138,25 +15142,25 @@
         <v>39</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="713">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-merge-patient-1:In a PatientMerge resource, all link.other.identifier must have a value {Patient.link.other.identifier.where(value.empty() or value ='').empty()}invariant-merge-patient-2:In a PatientMerge resource, identifier.extension shall not be present {Patient.identifier.value.extension.empty()}invariant-merge-patient-3:In a PatientMerge resource, link.other.identifier.extension shall never be present {Patient.link.other.identifier.value.extension.empty()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}invariant-merge-patient-1:In a PatientMerge resource, all link.other.identifier must have a value {Patient.link.other.identifier.where(value.empty() or value ='').empty()}invariant-merge-patient-2:In a PatientMerge resource, identifier.extension shall not be present {Patient.identifier.value.extension.empty()}invariant-merge-patient-3:In a PatientMerge resource, link.other.identifier.extension shall never be present {Patient.link.other.identifier.value.extension.empty()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -323,10 +323,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Patient.implicitRules</t>
   </si>
   <si>
@@ -346,6 +353,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Patient.language</t>
   </si>
   <si>
@@ -423,26 +433,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -469,10 +486,6 @@
     <t>A code classifying the person's aboriginal identity</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Patient.extension:aboriginalidentityindicator</t>
   </si>
   <si>
@@ -568,10 +581,6 @@
     <t>Patient.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -579,9 +588,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -608,16 +614,28 @@
 </t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier:JHN</t>
+  </si>
+  <si>
+    <t>JHN</t>
+  </si>
+  <si>
     <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>Patient.identifier:JHN</t>
-  </si>
-  <si>
-    <t>JHN</t>
   </si>
   <si>
     <t>Patient.identifier:JHN.id</t>
@@ -639,16 +657,13 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Patient.identifier:JHN.extension</t>
   </si>
   <si>
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -824,7 +839,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -853,6 +876,10 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
@@ -930,12 +957,6 @@
     <t>Patient.name.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Patient.name.use</t>
   </si>
   <si>
@@ -1046,6 +1067,9 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>HumanName.prefix</t>
   </si>
   <si>
@@ -1113,6 +1137,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -1143,8 +1171,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -1269,6 +1297,12 @@
   </si>
   <si>
     <t>Patient.gender.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Patient.gender.extension:genderEffectiveDates</t>
@@ -1738,6 +1772,9 @@
     <t>This field contains a patient's most recent marital (civil) status.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
@@ -1815,6 +1852,10 @@
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
   </si>
   <si>
@@ -1903,6 +1944,9 @@
     <t>A name associated with the contact person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -1933,6 +1977,9 @@
     <t>Address for the contact person.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1960,11 +2007,14 @@
     <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
-    <t xml:space="preserve">pat-1
-</t>
+    <t>ele-1
+pat-1</t>
   </si>
   <si>
     <t>scoper</t>
@@ -1983,6 +2033,9 @@
   </si>
   <si>
     <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -2168,9 +2221,6 @@
   </si>
   <si>
     <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>PID-3, MRG-1</t>
@@ -3008,13 +3058,13 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>80</v>
@@ -3031,10 +3081,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -3057,16 +3107,16 @@
         <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -3116,7 +3166,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -3125,13 +3175,13 @@
         <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>80</v>
@@ -3148,10 +3198,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3174,16 +3224,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3209,13 +3259,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -3233,7 +3283,7 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -3242,13 +3292,13 @@
         <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>80</v>
@@ -3265,14 +3315,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3291,16 +3341,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3350,7 +3400,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -3359,13 +3409,13 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -3382,14 +3432,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3408,16 +3458,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3467,7 +3517,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -3482,7 +3532,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -3499,14 +3549,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3525,15 +3575,17 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -3570,17 +3622,19 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3589,13 +3643,13 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -3612,16 +3666,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3640,15 +3694,17 @@
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -3697,7 +3753,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3706,13 +3762,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -3729,16 +3785,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3757,16 +3813,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3816,7 +3872,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3825,13 +3881,13 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
@@ -3848,16 +3904,16 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3876,16 +3932,16 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3935,7 +3991,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3944,13 +4000,13 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -3967,16 +4023,16 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3995,16 +4051,16 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4054,7 +4110,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -4063,13 +4119,13 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
@@ -4086,13 +4142,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>80</v>
@@ -4114,13 +4170,13 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4171,7 +4227,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4180,10 +4236,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -4203,13 +4259,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>80</v>
@@ -4231,13 +4287,13 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4288,7 +4344,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4297,10 +4353,10 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4320,14 +4376,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4346,19 +4402,19 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4395,19 +4451,19 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4416,13 +4472,13 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -4439,10 +4495,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4462,20 +4518,20 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4512,17 +4568,17 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4531,22 +4587,22 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4554,13 +4610,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>80</v>
@@ -4582,17 +4638,17 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4641,7 +4697,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4650,13 +4706,13 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -4665,7 +4721,7 @@
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -4673,10 +4729,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4699,13 +4755,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4756,7 +4812,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4771,7 +4827,7 @@
         <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4788,14 +4844,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4814,15 +4870,17 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4859,19 +4917,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4880,13 +4938,13 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4903,23 +4961,23 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4931,16 +4989,16 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4990,7 +5048,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4999,13 +5057,13 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -5022,10 +5080,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5048,19 +5106,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -5085,13 +5143,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -5109,7 +5167,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -5118,13 +5176,13 @@
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -5133,7 +5191,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5141,10 +5199,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5167,26 +5225,26 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>80</v>
@@ -5204,13 +5262,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -5228,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5237,13 +5295,13 @@
         <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -5252,7 +5310,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5260,10 +5318,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5286,19 +5344,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5311,7 +5369,7 @@
         <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>80</v>
@@ -5347,7 +5405,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5356,13 +5414,13 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -5371,7 +5429,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5379,10 +5437,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5405,16 +5463,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5428,7 +5486,7 @@
         <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>80</v>
@@ -5464,7 +5522,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5473,13 +5531,13 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -5488,7 +5546,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5496,10 +5554,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5522,15 +5580,17 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5579,7 +5639,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5588,13 +5648,13 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -5603,7 +5663,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5611,10 +5671,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5637,16 +5697,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5696,7 +5756,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5705,13 +5765,13 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5720,7 +5780,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5728,10 +5788,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5754,25 +5814,25 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>80</v>
@@ -5817,7 +5877,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5826,19 +5886,19 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5849,10 +5909,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5875,19 +5935,19 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5936,7 +5996,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5945,22 +6005,22 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5968,10 +6028,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5994,13 +6054,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6051,7 +6111,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -6066,7 +6126,7 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -6083,14 +6143,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6109,16 +6169,16 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6156,19 +6216,19 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6177,13 +6237,13 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -6200,10 +6260,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6226,19 +6286,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6263,11 +6323,11 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -6285,7 +6345,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6294,13 +6354,13 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -6309,7 +6369,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6317,10 +6377,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6343,19 +6403,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6404,7 +6464,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6413,13 +6473,13 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -6428,7 +6488,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6436,14 +6496,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6462,16 +6522,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6521,7 +6581,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6530,13 +6590,13 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -6545,7 +6605,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6553,14 +6613,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6579,16 +6639,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6638,7 +6698,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6647,13 +6707,13 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6662,7 +6722,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6670,10 +6730,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6696,15 +6756,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6753,7 +6815,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6762,13 +6824,13 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6777,7 +6839,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6785,10 +6847,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6811,15 +6873,17 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6868,7 +6932,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6877,13 +6941,13 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6892,7 +6956,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6900,10 +6964,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6926,17 +6990,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6985,7 +7051,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6994,13 +7060,13 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -7009,7 +7075,7 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -7017,10 +7083,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7043,19 +7109,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -7104,7 +7170,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7113,22 +7179,22 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7136,10 +7202,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7162,13 +7228,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7219,7 +7285,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7234,7 +7300,7 @@
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -7251,14 +7317,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7277,16 +7343,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7324,19 +7390,19 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7345,13 +7411,13 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7368,10 +7434,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7394,15 +7460,17 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7427,11 +7495,11 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7449,7 +7517,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7458,13 +7526,13 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -7473,7 +7541,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7481,10 +7549,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7507,19 +7575,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7568,7 +7636,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7577,13 +7645,13 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7592,7 +7660,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7600,10 +7668,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7626,19 +7694,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7663,11 +7731,11 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7685,7 +7753,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7694,13 +7762,13 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7709,7 +7777,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7717,10 +7785,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7743,16 +7811,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7802,7 +7870,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7811,13 +7879,13 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7826,7 +7894,7 @@
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7834,10 +7902,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7860,15 +7928,17 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7917,7 +7987,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7926,13 +7996,13 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7941,7 +8011,7 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7949,10 +8019,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7975,19 +8045,19 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -8012,13 +8082,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -8036,7 +8106,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8045,22 +8115,22 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8068,10 +8138,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8094,13 +8164,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8151,7 +8221,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8183,10 +8253,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8209,13 +8279,13 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>134</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>135</v>
+        <v>411</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8254,17 +8324,17 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8276,7 +8346,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -8296,13 +8366,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>80</v>
@@ -8324,13 +8394,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8381,7 +8451,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8390,10 +8460,10 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8413,10 +8483,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8439,13 +8509,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8496,7 +8566,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8528,10 +8598,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8554,19 +8624,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8615,7 +8685,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8624,33 +8694,33 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8673,13 +8743,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8730,7 +8800,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8762,10 +8832,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8788,13 +8858,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>134</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>135</v>
+        <v>411</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8833,17 +8903,17 @@
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8855,7 +8925,7 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8875,13 +8945,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>80</v>
@@ -8903,13 +8973,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8960,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8969,10 +9039,10 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -8992,10 +9062,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9018,13 +9088,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9075,7 +9145,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9107,10 +9177,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9133,19 +9203,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9194,7 +9264,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9203,22 +9273,22 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9226,10 +9296,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9252,13 +9322,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9309,7 +9379,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9341,10 +9411,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9367,13 +9437,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>134</v>
+        <v>410</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>135</v>
+        <v>411</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9412,17 +9482,17 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9434,7 +9504,7 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -9454,13 +9524,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
@@ -9482,13 +9552,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9539,7 +9609,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9548,10 +9618,10 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -9571,13 +9641,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
@@ -9599,13 +9669,13 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9656,7 +9726,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9665,10 +9735,10 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -9688,10 +9758,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9714,13 +9784,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9771,7 +9841,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9803,10 +9873,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9829,19 +9899,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9890,7 +9960,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9899,22 +9969,22 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9922,10 +9992,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9948,13 +10018,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10005,7 +10075,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10020,7 +10090,7 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -10037,14 +10107,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10063,15 +10133,17 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10108,19 +10180,19 @@
         <v>80</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10129,13 +10201,13 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -10152,16 +10224,16 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10180,15 +10252,17 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10237,7 +10311,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10246,13 +10320,13 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -10269,16 +10343,16 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10297,16 +10371,16 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10356,7 +10430,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10365,13 +10439,13 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -10388,13 +10462,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>80</v>
@@ -10416,13 +10490,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10473,7 +10547,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10482,10 +10556,10 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10505,10 +10579,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10531,19 +10605,19 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10556,7 +10630,7 @@
         <v>80</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>80</v>
@@ -10568,13 +10642,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10592,7 +10666,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10601,13 +10675,13 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -10616,7 +10690,7 @@
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10624,10 +10698,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10650,16 +10724,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10673,7 +10747,7 @@
         <v>80</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>80</v>
@@ -10685,13 +10759,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10709,7 +10783,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10718,13 +10792,13 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10733,7 +10807,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10741,10 +10815,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10767,19 +10841,19 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10792,7 +10866,7 @@
         <v>80</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>80</v>
@@ -10828,7 +10902,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10837,13 +10911,13 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10852,7 +10926,7 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10860,10 +10934,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10886,15 +10960,17 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10907,7 +10983,7 @@
         <v>80</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>80</v>
@@ -10943,7 +11019,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10952,13 +11028,13 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -10967,7 +11043,7 @@
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10975,14 +11051,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11001,15 +11077,17 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11022,7 +11100,7 @@
         <v>80</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>80</v>
@@ -11058,7 +11136,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11067,13 +11145,13 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -11082,7 +11160,7 @@
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -11090,14 +11168,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11116,16 +11194,16 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11139,7 +11217,7 @@
         <v>80</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>80</v>
@@ -11175,7 +11253,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11184,13 +11262,13 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -11199,7 +11277,7 @@
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11207,14 +11285,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11233,15 +11311,17 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11290,7 +11370,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11299,13 +11379,13 @@
         <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -11314,7 +11394,7 @@
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11322,14 +11402,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11348,15 +11428,17 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11369,7 +11451,7 @@
         <v>80</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>80</v>
@@ -11405,7 +11487,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11414,13 +11496,13 @@
         <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -11429,7 +11511,7 @@
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11437,10 +11519,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11463,16 +11545,16 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11522,7 +11604,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11531,13 +11613,13 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -11546,7 +11628,7 @@
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11554,10 +11636,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11580,17 +11662,19 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O78" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11603,7 +11687,7 @@
         <v>80</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>80</v>
@@ -11639,7 +11723,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11648,13 +11732,13 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
@@ -11663,7 +11747,7 @@
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11671,10 +11755,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11697,17 +11781,19 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="O79" t="s" s="2">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11732,13 +11818,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -11756,7 +11842,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11765,22 +11851,22 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11788,10 +11874,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11814,19 +11900,19 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11875,7 +11961,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11884,22 +11970,22 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11907,10 +11993,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11933,13 +12019,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11990,7 +12076,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12005,7 +12091,7 @@
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -12022,14 +12108,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12048,16 +12134,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12095,19 +12181,19 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12119,10 +12205,10 @@
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -12139,13 +12225,13 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>80</v>
@@ -12167,13 +12253,13 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12224,7 +12310,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12236,7 +12322,7 @@
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -12256,10 +12342,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12282,19 +12368,19 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12343,7 +12429,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12352,22 +12438,22 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>588</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12375,10 +12461,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12401,19 +12487,19 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12462,7 +12548,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12471,16 +12557,16 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12494,10 +12580,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12520,13 +12606,13 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12577,7 +12663,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12592,7 +12678,7 @@
         <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
@@ -12609,14 +12695,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12635,16 +12721,16 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12682,19 +12768,19 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12703,13 +12789,13 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
@@ -12726,14 +12812,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12752,19 +12838,19 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12813,7 +12899,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12822,13 +12908,13 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -12845,10 +12931,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12871,17 +12957,19 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="O89" t="s" s="2">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12906,13 +12994,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -12930,7 +13018,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12939,22 +13027,22 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -12962,10 +13050,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12988,17 +13076,19 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="O90" t="s" s="2">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13047,7 +13137,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13056,22 +13146,22 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13079,10 +13169,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13105,19 +13195,19 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13166,7 +13256,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13175,22 +13265,22 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13198,10 +13288,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13224,17 +13314,19 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13283,7 +13375,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13292,22 +13384,22 @@
         <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13315,10 +13407,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13341,17 +13433,19 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13376,13 +13470,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13400,7 +13494,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13409,22 +13503,22 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13432,10 +13526,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13458,17 +13552,19 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="O94" t="s" s="2">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13517,7 +13613,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13526,22 +13622,22 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13549,10 +13645,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13575,15 +13671,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13632,7 +13730,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13641,22 +13739,22 @@
         <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>647</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13664,10 +13762,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13690,19 +13788,19 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13751,7 +13849,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13760,16 +13858,16 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13783,10 +13881,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13809,13 +13907,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13866,7 +13964,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13881,7 +13979,7 @@
         <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
@@ -13898,14 +13996,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13924,16 +14022,16 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13971,19 +14069,19 @@
         <v>80</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13992,13 +14090,13 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>80</v>
@@ -14015,14 +14113,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14041,19 +14139,19 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14102,7 +14200,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14111,13 +14209,13 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>80</v>
@@ -14134,10 +14232,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14160,19 +14258,19 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14197,13 +14295,13 @@
         <v>80</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
@@ -14221,7 +14319,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>88</v>
@@ -14230,22 +14328,22 @@
         <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14253,10 +14351,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14279,19 +14377,19 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>80</v>
@@ -14340,7 +14438,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14349,22 +14447,22 @@
         <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14372,14 +14470,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14398,16 +14496,16 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14457,7 +14555,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14466,22 +14564,22 @@
         <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14489,10 +14587,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14515,19 +14613,19 @@
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14576,7 +14674,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14585,16 +14683,16 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -14608,10 +14706,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14634,19 +14732,19 @@
         <v>89</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14695,7 +14793,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14704,16 +14802,16 @@
         <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
@@ -14727,10 +14825,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14753,13 +14851,13 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14810,7 +14908,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14825,7 +14923,7 @@
         <v>80</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>80</v>
@@ -14842,14 +14940,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14868,15 +14966,17 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -14913,17 +15013,19 @@
         <v>80</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC106" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="AD106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14932,13 +15034,13 @@
         <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>80</v>
@@ -14955,13 +15057,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>80</v>
@@ -14983,13 +15085,13 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15040,7 +15142,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15049,10 +15151,10 @@
         <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>80</v>
@@ -15072,14 +15174,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15098,19 +15200,19 @@
         <v>89</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
@@ -15159,7 +15261,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15168,13 +15270,13 @@
         <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>80</v>
@@ -15191,10 +15293,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15217,16 +15319,16 @@
         <v>89</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15276,7 +15378,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>88</v>
@@ -15285,22 +15387,22 @@
         <v>88</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>691</v>
+        <v>190</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>80</v>
@@ -15308,10 +15410,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15334,15 +15436,17 @@
         <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15367,13 +15471,13 @@
         <v>80</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
@@ -15391,7 +15495,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>88</v>
@@ -15400,16 +15504,16 @@
         <v>88</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-patient.xlsx
+++ b/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
